--- a/dmr-api/wwwroot/excelTemplate/BPFCTemplate.xlsx
+++ b/dmr-api/wwwroot/excelTemplate/BPFCTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ec\api-ecs\wwwroot\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dmr\dmr-api\wwwroot\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Model Name</t>
   </si>
@@ -51,17 +51,23 @@
   </si>
   <si>
     <t>Process</t>
+  </si>
+  <si>
+    <t>STF Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Note: The format of STF date is "MM/dd/yyyy"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -69,7 +75,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -90,14 +96,22 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -181,16 +195,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -206,6 +217,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,23 +504,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -516,30 +533,37 @@
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="E2" s="3"/>
-      <c r="F2" s="6" t="s">
+    <row r="2" spans="1:9">
+      <c r="E2" s="10">
+        <v>43841</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="F3" s="8" t="s">
+    <row r="3" spans="1:9">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="F4" s="8" t="s">
+    <row r="4" spans="1:9">
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
